--- a/data_created/highrisk-medicare-among-all-state-average.xlsx
+++ b/data_created/highrisk-medicare-among-all-state-average.xlsx
@@ -557,28 +557,28 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>0.740273483443526</v>
+        <v>0.767736928945004</v>
       </c>
       <c r="C2" t="n">
-        <v>310585</v>
+        <v>322108</v>
       </c>
       <c r="D2" t="n">
-        <v>0.565714330697181</v>
+        <v>0.57610298564621</v>
       </c>
       <c r="E2" t="n">
-        <v>237348</v>
+        <v>241707</v>
       </c>
       <c r="F2" t="n">
-        <v>0.246335456305286</v>
+        <v>0.223220794821287</v>
       </c>
       <c r="G2" t="n">
-        <v>103351</v>
+        <v>93653</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0927358884645715</v>
+        <v>0.0707357469372814</v>
       </c>
       <c r="I2" t="n">
-        <v>38908</v>
+        <v>29678</v>
       </c>
     </row>
     <row r="3">
@@ -586,28 +586,28 @@
         <v>10</v>
       </c>
       <c r="B3" t="n">
-        <v>0.581623389843285</v>
+        <v>0.624295001539927</v>
       </c>
       <c r="C3" t="n">
-        <v>21458</v>
+        <v>23032</v>
       </c>
       <c r="D3" t="n">
-        <v>0.361512094753489</v>
+        <v>0.374808211341236</v>
       </c>
       <c r="E3" t="n">
-        <v>13337</v>
+        <v>13828</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0872842019228063</v>
+        <v>0.0730886243800327</v>
       </c>
       <c r="G3" t="n">
-        <v>3220</v>
+        <v>2696</v>
       </c>
       <c r="H3" t="n">
-        <v>0.017236711531859</v>
+        <v>0.0105381992673535</v>
       </c>
       <c r="I3" t="n">
-        <v>636</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4">
@@ -615,28 +615,28 @@
         <v>11</v>
       </c>
       <c r="B4" t="n">
-        <v>0.726065119065574</v>
+        <v>0.770200525093414</v>
       </c>
       <c r="C4" t="n">
-        <v>435137</v>
+        <v>461587</v>
       </c>
       <c r="D4" t="n">
-        <v>0.537186768751191</v>
+        <v>0.565481427639009</v>
       </c>
       <c r="E4" t="n">
-        <v>321940</v>
+        <v>338898</v>
       </c>
       <c r="F4" t="n">
-        <v>0.207695370279073</v>
+        <v>0.1945443475351</v>
       </c>
       <c r="G4" t="n">
-        <v>124473</v>
+        <v>116592</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0670439080857225</v>
+        <v>0.0512926402291029</v>
       </c>
       <c r="I4" t="n">
-        <v>40180</v>
+        <v>30740</v>
       </c>
     </row>
     <row r="5">
@@ -644,28 +644,28 @@
         <v>12</v>
       </c>
       <c r="B5" t="n">
-        <v>0.706946349086642</v>
+        <v>0.742433434183676</v>
       </c>
       <c r="C5" t="n">
-        <v>182876</v>
+        <v>192056</v>
       </c>
       <c r="D5" t="n">
-        <v>0.51792911326362</v>
+        <v>0.535135864680786</v>
       </c>
       <c r="E5" t="n">
-        <v>133980</v>
+        <v>138431</v>
       </c>
       <c r="F5" t="n">
-        <v>0.199989015038228</v>
+        <v>0.183011282436935</v>
       </c>
       <c r="G5" t="n">
-        <v>51734</v>
+        <v>47342</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0664686380909389</v>
+        <v>0.0508572377123334</v>
       </c>
       <c r="I5" t="n">
-        <v>17194</v>
+        <v>13156</v>
       </c>
     </row>
     <row r="6">
@@ -673,28 +673,28 @@
         <v>13</v>
       </c>
       <c r="B6" t="n">
-        <v>0.761608784632005</v>
+        <v>0.806097484913054</v>
       </c>
       <c r="C6" t="n">
-        <v>2162941</v>
+        <v>2289287</v>
       </c>
       <c r="D6" t="n">
-        <v>0.590504896447976</v>
+        <v>0.626820481813859</v>
       </c>
       <c r="E6" t="n">
-        <v>1677012</v>
+        <v>1780147</v>
       </c>
       <c r="F6" t="n">
-        <v>0.264665828777569</v>
+        <v>0.262385764048673</v>
       </c>
       <c r="G6" t="n">
-        <v>751641</v>
+        <v>745166</v>
       </c>
       <c r="H6" t="n">
-        <v>0.101696907731904</v>
+        <v>0.0876953692171107</v>
       </c>
       <c r="I6" t="n">
-        <v>288815</v>
+        <v>249052</v>
       </c>
     </row>
     <row r="7">
@@ -702,28 +702,28 @@
         <v>14</v>
       </c>
       <c r="B7" t="n">
-        <v>0.589736598837902</v>
+        <v>0.628542907161958</v>
       </c>
       <c r="C7" t="n">
-        <v>228787</v>
+        <v>243841</v>
       </c>
       <c r="D7" t="n">
-        <v>0.387220537831178</v>
+        <v>0.402642976140008</v>
       </c>
       <c r="E7" t="n">
-        <v>150221</v>
+        <v>156204</v>
       </c>
       <c r="F7" t="n">
-        <v>0.11815225052973</v>
+        <v>0.107541496151829</v>
       </c>
       <c r="G7" t="n">
-        <v>45837</v>
+        <v>41720</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0325612301168083</v>
+        <v>0.0248946952901886</v>
       </c>
       <c r="I7" t="n">
-        <v>12632</v>
+        <v>9658</v>
       </c>
     </row>
     <row r="8">
@@ -731,28 +731,28 @@
         <v>15</v>
       </c>
       <c r="B8" t="n">
-        <v>0.676131608006064</v>
+        <v>0.708604066043567</v>
       </c>
       <c r="C8" t="n">
-        <v>214889</v>
+        <v>225210</v>
       </c>
       <c r="D8" t="n">
-        <v>0.489452635386079</v>
+        <v>0.502771844751077</v>
       </c>
       <c r="E8" t="n">
-        <v>155559</v>
+        <v>159792</v>
       </c>
       <c r="F8" t="n">
-        <v>0.187095509966369</v>
+        <v>0.168874472973893</v>
       </c>
       <c r="G8" t="n">
-        <v>59463</v>
+        <v>53672</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0620646180305029</v>
+        <v>0.0459925804133405</v>
       </c>
       <c r="I8" t="n">
-        <v>19726</v>
+        <v>14617</v>
       </c>
     </row>
     <row r="9">
@@ -760,28 +760,28 @@
         <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>0.658841159334382</v>
+        <v>0.682256207008915</v>
       </c>
       <c r="C9" t="n">
-        <v>58547</v>
+        <v>60628</v>
       </c>
       <c r="D9" t="n">
-        <v>0.464510982380428</v>
+        <v>0.464361027883412</v>
       </c>
       <c r="E9" t="n">
-        <v>41278</v>
+        <v>41265</v>
       </c>
       <c r="F9" t="n">
-        <v>0.164315000589109</v>
+        <v>0.138208097694568</v>
       </c>
       <c r="G9" t="n">
-        <v>14602</v>
+        <v>12282</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0502371248014987</v>
+        <v>0.0333313676317273</v>
       </c>
       <c r="I9" t="n">
-        <v>4464</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="10">
@@ -789,28 +789,28 @@
         <v>17</v>
       </c>
       <c r="B10" t="n">
-        <v>0.858470853155512</v>
+        <v>0.90379246491495</v>
       </c>
       <c r="C10" t="n">
-        <v>34395</v>
+        <v>36211</v>
       </c>
       <c r="D10" t="n">
-        <v>0.724392967314929</v>
+        <v>0.779915706170093</v>
       </c>
       <c r="E10" t="n">
-        <v>29024</v>
+        <v>31248</v>
       </c>
       <c r="F10" t="n">
-        <v>0.397189052674714</v>
+        <v>0.427958857632514</v>
       </c>
       <c r="G10" t="n">
-        <v>15914</v>
+        <v>17147</v>
       </c>
       <c r="H10" t="n">
-        <v>0.181780382855055</v>
+        <v>0.183301631652627</v>
       </c>
       <c r="I10" t="n">
-        <v>7283</v>
+        <v>7344</v>
       </c>
     </row>
     <row r="11">
@@ -818,28 +818,28 @@
         <v>18</v>
       </c>
       <c r="B11" t="n">
-        <v>0.739722737045288</v>
+        <v>0.766275128908396</v>
       </c>
       <c r="C11" t="n">
-        <v>1515892</v>
+        <v>1570305</v>
       </c>
       <c r="D11" t="n">
-        <v>0.570538745632298</v>
+        <v>0.581821395759318</v>
       </c>
       <c r="E11" t="n">
-        <v>1169189</v>
+        <v>1192310</v>
       </c>
       <c r="F11" t="n">
-        <v>0.259899187184613</v>
+        <v>0.240530926935181</v>
       </c>
       <c r="G11" t="n">
-        <v>532604</v>
+        <v>492913</v>
       </c>
       <c r="H11" t="n">
-        <v>0.104748430525133</v>
+        <v>0.0841734016258908</v>
       </c>
       <c r="I11" t="n">
-        <v>214658</v>
+        <v>172494</v>
       </c>
     </row>
     <row r="12">
@@ -847,28 +847,28 @@
         <v>19</v>
       </c>
       <c r="B12" t="n">
-        <v>0.734181694228135</v>
+        <v>0.770927124431078</v>
       </c>
       <c r="C12" t="n">
-        <v>527439</v>
+        <v>553837</v>
       </c>
       <c r="D12" t="n">
-        <v>0.55722982752155</v>
+        <v>0.580619356760636</v>
       </c>
       <c r="E12" t="n">
-        <v>400316</v>
+        <v>417119</v>
       </c>
       <c r="F12" t="n">
-        <v>0.238719662509092</v>
+        <v>0.227968436364365</v>
       </c>
       <c r="G12" t="n">
-        <v>171497</v>
+        <v>163773</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0885187008983664</v>
+        <v>0.0730625921278251</v>
       </c>
       <c r="I12" t="n">
-        <v>63592</v>
+        <v>52488</v>
       </c>
     </row>
     <row r="13">
@@ -876,28 +876,28 @@
         <v>20</v>
       </c>
       <c r="B13" t="n">
-        <v>0.690437675448138</v>
+        <v>0.741423121560709</v>
       </c>
       <c r="C13" t="n">
-        <v>91892</v>
+        <v>98678</v>
       </c>
       <c r="D13" t="n">
-        <v>0.493443224037325</v>
+        <v>0.526750542091388</v>
       </c>
       <c r="E13" t="n">
-        <v>65674</v>
+        <v>70107</v>
       </c>
       <c r="F13" t="n">
-        <v>0.17483362964623</v>
+        <v>0.16571067520784</v>
       </c>
       <c r="G13" t="n">
-        <v>23269</v>
+        <v>22055</v>
       </c>
       <c r="H13" t="n">
-        <v>0.051777892650253</v>
+        <v>0.0397661524988493</v>
       </c>
       <c r="I13" t="n">
-        <v>6891</v>
+        <v>5293</v>
       </c>
     </row>
     <row r="14">
@@ -905,28 +905,28 @@
         <v>21</v>
       </c>
       <c r="B14" t="n">
-        <v>0.580338437057547</v>
+        <v>0.610820781836877</v>
       </c>
       <c r="C14" t="n">
-        <v>76431</v>
+        <v>80445</v>
       </c>
       <c r="D14" t="n">
-        <v>0.367538057197995</v>
+        <v>0.368122004902748</v>
       </c>
       <c r="E14" t="n">
-        <v>48405</v>
+        <v>48482</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0971162658656069</v>
+        <v>0.0763001998130767</v>
       </c>
       <c r="G14" t="n">
-        <v>12790</v>
+        <v>10049</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0219807923014444</v>
+        <v>0.0124174098059369</v>
       </c>
       <c r="I14" t="n">
-        <v>2895</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="15">
@@ -934,28 +934,28 @@
         <v>22</v>
       </c>
       <c r="B15" t="n">
-        <v>0.696720481711559</v>
+        <v>0.729707997432631</v>
       </c>
       <c r="C15" t="n">
-        <v>724696</v>
+        <v>759008</v>
       </c>
       <c r="D15" t="n">
-        <v>0.516542582656594</v>
+        <v>0.534144943729083</v>
       </c>
       <c r="E15" t="n">
-        <v>537283</v>
+        <v>555592</v>
       </c>
       <c r="F15" t="n">
-        <v>0.212881520420827</v>
+        <v>0.201431525735594</v>
       </c>
       <c r="G15" t="n">
-        <v>221429</v>
+        <v>209520</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0774636849782415</v>
+        <v>0.0641543364507071</v>
       </c>
       <c r="I15" t="n">
-        <v>80574</v>
+        <v>66730</v>
       </c>
     </row>
     <row r="16">
@@ -963,28 +963,28 @@
         <v>23</v>
       </c>
       <c r="B16" t="n">
-        <v>0.664789955516586</v>
+        <v>0.691570262644475</v>
       </c>
       <c r="C16" t="n">
-        <v>353808</v>
+        <v>368061</v>
       </c>
       <c r="D16" t="n">
-        <v>0.474145474358707</v>
+        <v>0.478290148815701</v>
       </c>
       <c r="E16" t="n">
-        <v>252345</v>
+        <v>254551</v>
       </c>
       <c r="F16" t="n">
-        <v>0.17566691532745</v>
+        <v>0.152573361435424</v>
       </c>
       <c r="G16" t="n">
-        <v>93492</v>
+        <v>81201</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0574719254502084</v>
+        <v>0.0411127601799684</v>
       </c>
       <c r="I16" t="n">
-        <v>30587</v>
+        <v>21881</v>
       </c>
     </row>
     <row r="17">
@@ -992,28 +992,28 @@
         <v>24</v>
       </c>
       <c r="B17" t="n">
-        <v>0.577310696251551</v>
+        <v>0.600801747412152</v>
       </c>
       <c r="C17" t="n">
-        <v>157828</v>
+        <v>164250</v>
       </c>
       <c r="D17" t="n">
-        <v>0.374631118418824</v>
+        <v>0.370613412810361</v>
       </c>
       <c r="E17" t="n">
-        <v>102419</v>
+        <v>101320</v>
       </c>
       <c r="F17" t="n">
-        <v>0.107552815539168</v>
+        <v>0.0842978823515888</v>
       </c>
       <c r="G17" t="n">
-        <v>29403</v>
+        <v>23046</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0266553086945721</v>
+        <v>0.0152278881951747</v>
       </c>
       <c r="I17" t="n">
-        <v>7287</v>
+        <v>4163</v>
       </c>
     </row>
     <row r="18">
@@ -1021,28 +1021,28 @@
         <v>25</v>
       </c>
       <c r="B18" t="n">
-        <v>0.614959401529988</v>
+        <v>0.64212521440694</v>
       </c>
       <c r="C18" t="n">
-        <v>145789</v>
+        <v>152229</v>
       </c>
       <c r="D18" t="n">
-        <v>0.419401909844422</v>
+        <v>0.422495742730359</v>
       </c>
       <c r="E18" t="n">
-        <v>99428</v>
+        <v>100161</v>
       </c>
       <c r="F18" t="n">
-        <v>0.139739885104888</v>
+        <v>0.118714713860315</v>
       </c>
       <c r="G18" t="n">
-        <v>33128</v>
+        <v>28144</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0415173019507158</v>
+        <v>0.0283416043786292</v>
       </c>
       <c r="I18" t="n">
-        <v>9843</v>
+        <v>6719</v>
       </c>
     </row>
     <row r="19">
@@ -1050,28 +1050,28 @@
         <v>26</v>
       </c>
       <c r="B19" t="n">
-        <v>0.702152132262186</v>
+        <v>0.731821836442944</v>
       </c>
       <c r="C19" t="n">
-        <v>260310</v>
+        <v>271309</v>
       </c>
       <c r="D19" t="n">
-        <v>0.511321759571003</v>
+        <v>0.516970667243767</v>
       </c>
       <c r="E19" t="n">
-        <v>189563</v>
+        <v>191657</v>
       </c>
       <c r="F19" t="n">
-        <v>0.192098957593704</v>
+        <v>0.161919225880551</v>
       </c>
       <c r="G19" t="n">
-        <v>71217</v>
+        <v>60028</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0608440836127418</v>
+        <v>0.0391225790372557</v>
       </c>
       <c r="I19" t="n">
-        <v>22557</v>
+        <v>14504</v>
       </c>
     </row>
     <row r="20">
@@ -1079,28 +1079,28 @@
         <v>27</v>
       </c>
       <c r="B20" t="n">
-        <v>0.776805279579015</v>
+        <v>0.812108717166883</v>
       </c>
       <c r="C20" t="n">
-        <v>287048</v>
+        <v>300094</v>
       </c>
       <c r="D20" t="n">
-        <v>0.611734932750099</v>
+        <v>0.637438710009231</v>
       </c>
       <c r="E20" t="n">
-        <v>226051</v>
+        <v>235549</v>
       </c>
       <c r="F20" t="n">
-        <v>0.284355478214586</v>
+        <v>0.273992698492007</v>
       </c>
       <c r="G20" t="n">
-        <v>105076</v>
+        <v>101247</v>
       </c>
       <c r="H20" t="n">
-        <v>0.112426842957361</v>
+        <v>0.0937602616987154</v>
       </c>
       <c r="I20" t="n">
-        <v>41544</v>
+        <v>34647</v>
       </c>
     </row>
     <row r="21">
@@ -1108,28 +1108,28 @@
         <v>28</v>
       </c>
       <c r="B21" t="n">
-        <v>0.570164403737576</v>
+        <v>0.597943499469682</v>
       </c>
       <c r="C21" t="n">
-        <v>80492</v>
+        <v>84413</v>
       </c>
       <c r="D21" t="n">
-        <v>0.362228549766556</v>
+        <v>0.360132449036761</v>
       </c>
       <c r="E21" t="n">
-        <v>51137</v>
+        <v>50841</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0972983265267015</v>
+        <v>0.0750005398142039</v>
       </c>
       <c r="G21" t="n">
-        <v>13736</v>
+        <v>10588</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0223725758867629</v>
+        <v>0.0121578081294935</v>
       </c>
       <c r="I21" t="n">
-        <v>3158</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="22">
@@ -1137,28 +1137,28 @@
         <v>29</v>
       </c>
       <c r="B22" t="n">
-        <v>0.68698028750406</v>
+        <v>0.714419453501186</v>
       </c>
       <c r="C22" t="n">
-        <v>323640</v>
+        <v>336567</v>
       </c>
       <c r="D22" t="n">
-        <v>0.509538134978877</v>
+        <v>0.521522711662382</v>
       </c>
       <c r="E22" t="n">
-        <v>240046</v>
+        <v>245692</v>
       </c>
       <c r="F22" t="n">
-        <v>0.21460541362512</v>
+        <v>0.201706023680203</v>
       </c>
       <c r="G22" t="n">
-        <v>101102</v>
+        <v>95025</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0815462036269051</v>
+        <v>0.0679631861000336</v>
       </c>
       <c r="I22" t="n">
-        <v>38417</v>
+        <v>32018</v>
       </c>
     </row>
     <row r="23">
@@ -1166,28 +1166,28 @@
         <v>30</v>
       </c>
       <c r="B23" t="n">
-        <v>0.630416968473008</v>
+        <v>0.658872728905934</v>
       </c>
       <c r="C23" t="n">
-        <v>359552</v>
+        <v>375781</v>
       </c>
       <c r="D23" t="n">
-        <v>0.43718693910784</v>
+        <v>0.443189022558614</v>
       </c>
       <c r="E23" t="n">
-        <v>249345</v>
+        <v>252768</v>
       </c>
       <c r="F23" t="n">
-        <v>0.152088013997222</v>
+        <v>0.132710927211934</v>
       </c>
       <c r="G23" t="n">
-        <v>86742</v>
+        <v>75690</v>
       </c>
       <c r="H23" t="n">
-        <v>0.04709854930343</v>
+        <v>0.0338285094328302</v>
       </c>
       <c r="I23" t="n">
-        <v>26862</v>
+        <v>19294</v>
       </c>
     </row>
     <row r="24">
@@ -1195,28 +1195,28 @@
         <v>31</v>
       </c>
       <c r="B24" t="n">
-        <v>0.671150281224784</v>
+        <v>0.692924842482714</v>
       </c>
       <c r="C24" t="n">
-        <v>588449</v>
+        <v>607541</v>
       </c>
       <c r="D24" t="n">
-        <v>0.485059809829813</v>
+        <v>0.483859516865617</v>
       </c>
       <c r="E24" t="n">
-        <v>425289</v>
+        <v>424237</v>
       </c>
       <c r="F24" t="n">
-        <v>0.189289720697915</v>
+        <v>0.1626098720346</v>
       </c>
       <c r="G24" t="n">
-        <v>165965</v>
+        <v>142573</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0670247021960983</v>
+        <v>0.0482581465170334</v>
       </c>
       <c r="I24" t="n">
-        <v>58766</v>
+        <v>42312</v>
       </c>
     </row>
     <row r="25">
@@ -1224,28 +1224,28 @@
         <v>32</v>
       </c>
       <c r="B25" t="n">
-        <v>0.565767298384697</v>
+        <v>0.596723972535572</v>
       </c>
       <c r="C25" t="n">
-        <v>251353</v>
+        <v>265107</v>
       </c>
       <c r="D25" t="n">
-        <v>0.361433328696321</v>
+        <v>0.365476936892728</v>
       </c>
       <c r="E25" t="n">
-        <v>160574</v>
+        <v>162370</v>
       </c>
       <c r="F25" t="n">
-        <v>0.099785428739319</v>
+        <v>0.082188400593646</v>
       </c>
       <c r="G25" t="n">
-        <v>44332</v>
+        <v>36514</v>
       </c>
       <c r="H25" t="n">
-        <v>0.023857040926029</v>
+        <v>0.0148819174937821</v>
       </c>
       <c r="I25" t="n">
-        <v>10599</v>
+        <v>6612</v>
       </c>
     </row>
     <row r="26">
@@ -1253,28 +1253,28 @@
         <v>33</v>
       </c>
       <c r="B26" t="n">
-        <v>0.762893974258035</v>
+        <v>0.799650740896518</v>
       </c>
       <c r="C26" t="n">
-        <v>186945</v>
+        <v>195952</v>
       </c>
       <c r="D26" t="n">
-        <v>0.594360281988453</v>
+        <v>0.621067488685725</v>
       </c>
       <c r="E26" t="n">
-        <v>145646</v>
+        <v>152191</v>
       </c>
       <c r="F26" t="n">
-        <v>0.270393227442461</v>
+        <v>0.262007508263241</v>
       </c>
       <c r="G26" t="n">
-        <v>66259</v>
+        <v>64204</v>
       </c>
       <c r="H26" t="n">
-        <v>0.105525465768618</v>
+        <v>0.0893127918391361</v>
       </c>
       <c r="I26" t="n">
-        <v>25859</v>
+        <v>21886</v>
       </c>
     </row>
     <row r="27">
@@ -1282,28 +1282,28 @@
         <v>34</v>
       </c>
       <c r="B27" t="n">
-        <v>0.670530839345251</v>
+        <v>0.697623810630562</v>
       </c>
       <c r="C27" t="n">
-        <v>351431</v>
+        <v>365631</v>
       </c>
       <c r="D27" t="n">
-        <v>0.478846375675155</v>
+        <v>0.483268695032611</v>
       </c>
       <c r="E27" t="n">
-        <v>250968</v>
+        <v>253285</v>
       </c>
       <c r="F27" t="n">
-        <v>0.17603104398575</v>
+        <v>0.152156363908044</v>
       </c>
       <c r="G27" t="n">
-        <v>92259</v>
+        <v>79747</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0565819220951096</v>
+        <v>0.0399007794485189</v>
       </c>
       <c r="I27" t="n">
-        <v>29655</v>
+        <v>20912</v>
       </c>
     </row>
     <row r="28">
@@ -1311,28 +1311,28 @@
         <v>35</v>
       </c>
       <c r="B28" t="n">
-        <v>0.545713791489624</v>
+        <v>0.580842496186965</v>
       </c>
       <c r="C28" t="n">
-        <v>53687</v>
+        <v>57143</v>
       </c>
       <c r="D28" t="n">
-        <v>0.333324000513246</v>
+        <v>0.338959212125753</v>
       </c>
       <c r="E28" t="n">
-        <v>32792</v>
+        <v>33346</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0821476032399915</v>
+        <v>0.0667758735979155</v>
       </c>
       <c r="G28" t="n">
-        <v>8082</v>
+        <v>6569</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0178982382214349</v>
+        <v>0.0108556898852791</v>
       </c>
       <c r="I28" t="n">
-        <v>1761</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="29">
@@ -1340,28 +1340,28 @@
         <v>36</v>
       </c>
       <c r="B29" t="n">
-        <v>0.590144990047599</v>
+        <v>0.619364942411337</v>
       </c>
       <c r="C29" t="n">
-        <v>89803</v>
+        <v>94249</v>
       </c>
       <c r="D29" t="n">
-        <v>0.387656858030032</v>
+        <v>0.390480856413847</v>
       </c>
       <c r="E29" t="n">
-        <v>58990</v>
+        <v>59420</v>
       </c>
       <c r="F29" t="n">
-        <v>0.114425365468531</v>
+        <v>0.0939178767627322</v>
       </c>
       <c r="G29" t="n">
-        <v>17412</v>
+        <v>14292</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0290632034546374</v>
+        <v>0.0179551607333866</v>
       </c>
       <c r="I29" t="n">
-        <v>4423</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="30">
@@ -1369,28 +1369,28 @@
         <v>37</v>
       </c>
       <c r="B30" t="n">
-        <v>0.74930934165728</v>
+        <v>0.799287160751401</v>
       </c>
       <c r="C30" t="n">
-        <v>169184</v>
+        <v>180469</v>
       </c>
       <c r="D30" t="n">
-        <v>0.565925699432467</v>
+        <v>0.60411694373744</v>
       </c>
       <c r="E30" t="n">
-        <v>127779</v>
+        <v>136402</v>
       </c>
       <c r="F30" t="n">
-        <v>0.230155335322483</v>
+        <v>0.222390344119745</v>
       </c>
       <c r="G30" t="n">
-        <v>51966</v>
+        <v>50213</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0779092714081945</v>
+        <v>0.0619089522129133</v>
       </c>
       <c r="I30" t="n">
-        <v>17591</v>
+        <v>13978</v>
       </c>
     </row>
     <row r="31">
@@ -1398,28 +1398,28 @@
         <v>38</v>
       </c>
       <c r="B31" t="n">
-        <v>0.527467709277808</v>
+        <v>0.549549734723643</v>
       </c>
       <c r="C31" t="n">
-        <v>65291</v>
+        <v>68024</v>
       </c>
       <c r="D31" t="n">
-        <v>0.320052883188462</v>
+        <v>0.312766670392381</v>
       </c>
       <c r="E31" t="n">
-        <v>39617</v>
+        <v>38715</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0768280565075926</v>
+        <v>0.056731019478473</v>
       </c>
       <c r="G31" t="n">
-        <v>9510</v>
+        <v>7022</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0158062837231187</v>
+        <v>0.0080400471993537</v>
       </c>
       <c r="I31" t="n">
-        <v>1957</v>
+        <v>995</v>
       </c>
     </row>
     <row r="32">
@@ -1427,28 +1427,28 @@
         <v>39</v>
       </c>
       <c r="B32" t="n">
-        <v>0.698527472396264</v>
+        <v>0.7245083036579</v>
       </c>
       <c r="C32" t="n">
-        <v>516674</v>
+        <v>535891</v>
       </c>
       <c r="D32" t="n">
-        <v>0.522084285799985</v>
+        <v>0.531791856549162</v>
       </c>
       <c r="E32" t="n">
-        <v>386166</v>
+        <v>393346</v>
       </c>
       <c r="F32" t="n">
-        <v>0.22110433965904</v>
+        <v>0.203727714730707</v>
       </c>
       <c r="G32" t="n">
-        <v>163542</v>
+        <v>150690</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0831770422668648</v>
+        <v>0.0665158473833831</v>
       </c>
       <c r="I32" t="n">
-        <v>61523</v>
+        <v>49199</v>
       </c>
     </row>
     <row r="33">
@@ -1456,28 +1456,28 @@
         <v>40</v>
       </c>
       <c r="B33" t="n">
-        <v>0.753583156168363</v>
+        <v>0.804491650286053</v>
       </c>
       <c r="C33" t="n">
-        <v>141659</v>
+        <v>151228</v>
       </c>
       <c r="D33" t="n">
-        <v>0.576530202941564</v>
+        <v>0.621770698782434</v>
       </c>
       <c r="E33" t="n">
-        <v>108376</v>
+        <v>116880</v>
       </c>
       <c r="F33" t="n">
-        <v>0.246430066486336</v>
+        <v>0.252078788372911</v>
       </c>
       <c r="G33" t="n">
-        <v>46324</v>
+        <v>47386</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0889356790028129</v>
+        <v>0.0797462873778967</v>
       </c>
       <c r="I33" t="n">
-        <v>16718</v>
+        <v>14991</v>
       </c>
     </row>
     <row r="34">
@@ -1485,28 +1485,28 @@
         <v>41</v>
       </c>
       <c r="B34" t="n">
-        <v>0.725299893777934</v>
+        <v>0.756063389601683</v>
       </c>
       <c r="C34" t="n">
-        <v>1209385</v>
+        <v>1260681</v>
       </c>
       <c r="D34" t="n">
-        <v>0.553887234698628</v>
+        <v>0.571359190423793</v>
       </c>
       <c r="E34" t="n">
-        <v>923567</v>
+        <v>952700</v>
       </c>
       <c r="F34" t="n">
-        <v>0.247348484744465</v>
+        <v>0.235749160865342</v>
       </c>
       <c r="G34" t="n">
-        <v>412436</v>
+        <v>393095</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0981809758621339</v>
+        <v>0.0828837581927585</v>
       </c>
       <c r="I34" t="n">
-        <v>163710</v>
+        <v>138203</v>
       </c>
     </row>
     <row r="35">
@@ -1514,28 +1514,28 @@
         <v>42</v>
       </c>
       <c r="B35" t="n">
-        <v>0.714476671257502</v>
+        <v>0.75059504433554</v>
       </c>
       <c r="C35" t="n">
-        <v>591479</v>
+        <v>621379</v>
       </c>
       <c r="D35" t="n">
-        <v>0.531851324231404</v>
+        <v>0.551138305298467</v>
       </c>
       <c r="E35" t="n">
-        <v>440293</v>
+        <v>456259</v>
       </c>
       <c r="F35" t="n">
-        <v>0.217892640444324</v>
+        <v>0.20245130590277</v>
       </c>
       <c r="G35" t="n">
-        <v>180382</v>
+        <v>167599</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0781187056848096</v>
+        <v>0.0613803389473591</v>
       </c>
       <c r="I35" t="n">
-        <v>64670</v>
+        <v>50814</v>
       </c>
     </row>
     <row r="36">
@@ -1543,28 +1543,28 @@
         <v>43</v>
       </c>
       <c r="B36" t="n">
-        <v>0.587669107964487</v>
+        <v>0.610993056719785</v>
       </c>
       <c r="C36" t="n">
-        <v>33904</v>
+        <v>35250</v>
       </c>
       <c r="D36" t="n">
-        <v>0.38732487903438</v>
+        <v>0.383907412260386</v>
       </c>
       <c r="E36" t="n">
-        <v>22346</v>
+        <v>22149</v>
       </c>
       <c r="F36" t="n">
-        <v>0.116303047922221</v>
+        <v>0.0925251185911205</v>
       </c>
       <c r="G36" t="n">
-        <v>6710</v>
+        <v>5338</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0303184976131149</v>
+        <v>0.0179077474987642</v>
       </c>
       <c r="I36" t="n">
-        <v>1749</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="37">
@@ -1572,28 +1572,28 @@
         <v>44</v>
       </c>
       <c r="B37" t="n">
-        <v>0.684057405702041</v>
+        <v>0.713221094511066</v>
       </c>
       <c r="C37" t="n">
-        <v>696381</v>
+        <v>726070</v>
       </c>
       <c r="D37" t="n">
-        <v>0.496578516679352</v>
+        <v>0.50565478081494</v>
       </c>
       <c r="E37" t="n">
-        <v>505524</v>
+        <v>514764</v>
       </c>
       <c r="F37" t="n">
-        <v>0.190654124940139</v>
+        <v>0.170264099563822</v>
       </c>
       <c r="G37" t="n">
-        <v>194089</v>
+        <v>173331</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0636454983305195</v>
+        <v>0.0473057985758792</v>
       </c>
       <c r="I37" t="n">
-        <v>64792</v>
+        <v>48158</v>
       </c>
     </row>
     <row r="38">
@@ -1601,28 +1601,28 @@
         <v>45</v>
       </c>
       <c r="B38" t="n">
-        <v>0.707420181634465</v>
+        <v>0.737555075263739</v>
       </c>
       <c r="C38" t="n">
-        <v>219414</v>
+        <v>228761</v>
       </c>
       <c r="D38" t="n">
-        <v>0.521120905095837</v>
+        <v>0.531312878407416</v>
       </c>
       <c r="E38" t="n">
-        <v>161631</v>
+        <v>164793</v>
       </c>
       <c r="F38" t="n">
-        <v>0.203903066497469</v>
+        <v>0.180161004605941</v>
       </c>
       <c r="G38" t="n">
-        <v>63243</v>
+        <v>55879</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0679462757979587</v>
+        <v>0.0482887862676306</v>
       </c>
       <c r="I38" t="n">
-        <v>21074</v>
+        <v>14977</v>
       </c>
     </row>
     <row r="39">
@@ -1630,28 +1630,28 @@
         <v>46</v>
       </c>
       <c r="B39" t="n">
-        <v>0.638376121802389</v>
+        <v>0.684723709423474</v>
       </c>
       <c r="C39" t="n">
-        <v>228504</v>
+        <v>245094</v>
       </c>
       <c r="D39" t="n">
-        <v>0.428796189777345</v>
+        <v>0.451152635573325</v>
       </c>
       <c r="E39" t="n">
-        <v>153486</v>
+        <v>161488</v>
       </c>
       <c r="F39" t="n">
-        <v>0.128880062047275</v>
+        <v>0.115226671817573</v>
       </c>
       <c r="G39" t="n">
-        <v>46132</v>
+        <v>41245</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0322980792138697</v>
+        <v>0.0222836791787075</v>
       </c>
       <c r="I39" t="n">
-        <v>11561</v>
+        <v>7976</v>
       </c>
     </row>
     <row r="40">
@@ -1659,28 +1659,28 @@
         <v>47</v>
       </c>
       <c r="B40" t="n">
-        <v>0.643229669922923</v>
+        <v>0.66492641157283</v>
       </c>
       <c r="C40" t="n">
-        <v>770323</v>
+        <v>796307</v>
       </c>
       <c r="D40" t="n">
-        <v>0.452473572031625</v>
+        <v>0.451175024128289</v>
       </c>
       <c r="E40" t="n">
-        <v>541876</v>
+        <v>540321</v>
       </c>
       <c r="F40" t="n">
-        <v>0.163651451018462</v>
+        <v>0.139513508763158</v>
       </c>
       <c r="G40" t="n">
-        <v>195987</v>
+        <v>167079</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0531281042007837</v>
+        <v>0.03771813514763</v>
       </c>
       <c r="I40" t="n">
-        <v>63625</v>
+        <v>45171</v>
       </c>
     </row>
     <row r="41">
@@ -1688,28 +1688,28 @@
         <v>48</v>
       </c>
       <c r="B41" t="n">
-        <v>0.676961550724925</v>
+        <v>0.707143516625664</v>
       </c>
       <c r="C41" t="n">
-        <v>63060</v>
+        <v>65871</v>
       </c>
       <c r="D41" t="n">
-        <v>0.49420440235883</v>
+        <v>0.506991288654254</v>
       </c>
       <c r="E41" t="n">
-        <v>46036</v>
+        <v>47227</v>
       </c>
       <c r="F41" t="n">
-        <v>0.196834086679065</v>
+        <v>0.181292135297282</v>
       </c>
       <c r="G41" t="n">
-        <v>18335</v>
+        <v>16888</v>
       </c>
       <c r="H41" t="n">
-        <v>0.0693937149566685</v>
+        <v>0.0543588210845268</v>
       </c>
       <c r="I41" t="n">
-        <v>6464</v>
+        <v>5064</v>
       </c>
     </row>
     <row r="42">
@@ -1717,28 +1717,28 @@
         <v>49</v>
       </c>
       <c r="B42" t="n">
-        <v>0.705330898432358</v>
+        <v>0.74158062717005</v>
       </c>
       <c r="C42" t="n">
-        <v>306569</v>
+        <v>322325</v>
       </c>
       <c r="D42" t="n">
-        <v>0.518199300019759</v>
+        <v>0.536905237481889</v>
       </c>
       <c r="E42" t="n">
-        <v>225233</v>
+        <v>233364</v>
       </c>
       <c r="F42" t="n">
-        <v>0.204180161918792</v>
+        <v>0.189160160209752</v>
       </c>
       <c r="G42" t="n">
-        <v>88746</v>
+        <v>82218</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0702528595023256</v>
+        <v>0.0551003758479523</v>
       </c>
       <c r="I42" t="n">
-        <v>30535</v>
+        <v>23949</v>
       </c>
     </row>
     <row r="43">
@@ -1746,28 +1746,28 @@
         <v>50</v>
       </c>
       <c r="B43" t="n">
-        <v>0.578839504887419</v>
+        <v>0.604246776289985</v>
       </c>
       <c r="C43" t="n">
-        <v>41810</v>
+        <v>43645</v>
       </c>
       <c r="D43" t="n">
-        <v>0.374871971865429</v>
+        <v>0.373108155208842</v>
       </c>
       <c r="E43" t="n">
-        <v>27077</v>
+        <v>26950</v>
       </c>
       <c r="F43" t="n">
-        <v>0.108003653447743</v>
+        <v>0.0865572566971539</v>
       </c>
       <c r="G43" t="n">
-        <v>7801</v>
+        <v>6252</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0273335780828144</v>
+        <v>0.0164751075439722</v>
       </c>
       <c r="I43" t="n">
-        <v>1974</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="44">
@@ -1775,28 +1775,28 @@
         <v>51</v>
       </c>
       <c r="B44" t="n">
-        <v>0.696573510976856</v>
+        <v>0.727671033039536</v>
       </c>
       <c r="C44" t="n">
-        <v>380994</v>
+        <v>398003</v>
       </c>
       <c r="D44" t="n">
-        <v>0.507027823707185</v>
+        <v>0.516505591422042</v>
       </c>
       <c r="E44" t="n">
-        <v>277321</v>
+        <v>282505</v>
       </c>
       <c r="F44" t="n">
-        <v>0.193369174056594</v>
+        <v>0.170465499316361</v>
       </c>
       <c r="G44" t="n">
-        <v>105764</v>
+        <v>93237</v>
       </c>
       <c r="H44" t="n">
-        <v>0.0635148542270144</v>
+        <v>0.0459637241721558</v>
       </c>
       <c r="I44" t="n">
-        <v>34740</v>
+        <v>25140</v>
       </c>
     </row>
     <row r="45">
@@ -1804,28 +1804,28 @@
         <v>52</v>
       </c>
       <c r="B45" t="n">
-        <v>0.750220625211418</v>
+        <v>0.785649242441761</v>
       </c>
       <c r="C45" t="n">
-        <v>1288010</v>
+        <v>1348836</v>
       </c>
       <c r="D45" t="n">
-        <v>0.581290911131947</v>
+        <v>0.605876891631031</v>
       </c>
       <c r="E45" t="n">
-        <v>997985</v>
+        <v>1040195</v>
       </c>
       <c r="F45" t="n">
-        <v>0.264893388757889</v>
+        <v>0.256171719733222</v>
       </c>
       <c r="G45" t="n">
-        <v>454780</v>
+        <v>439806</v>
       </c>
       <c r="H45" t="n">
-        <v>0.105234028151523</v>
+        <v>0.0889504473270977</v>
       </c>
       <c r="I45" t="n">
-        <v>180670</v>
+        <v>152714</v>
       </c>
     </row>
     <row r="46">
@@ -1833,28 +1833,28 @@
         <v>53</v>
       </c>
       <c r="B46" t="n">
-        <v>0.572428315785733</v>
+        <v>0.600477499159603</v>
       </c>
       <c r="C46" t="n">
-        <v>94869</v>
+        <v>99517</v>
       </c>
       <c r="D46" t="n">
-        <v>0.361684065134457</v>
+        <v>0.359811475363359</v>
       </c>
       <c r="E46" t="n">
-        <v>59942</v>
+        <v>59632</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0944957204058852</v>
+        <v>0.0728370590984023</v>
       </c>
       <c r="G46" t="n">
-        <v>15661</v>
+        <v>12071</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0207869445298361</v>
+        <v>0.0112684306112548</v>
       </c>
       <c r="I46" t="n">
-        <v>3445</v>
+        <v>1868</v>
       </c>
     </row>
     <row r="47">
@@ -1862,28 +1862,28 @@
         <v>54</v>
       </c>
       <c r="B47" t="n">
-        <v>0.525649491831095</v>
+        <v>0.552616570656661</v>
       </c>
       <c r="C47" t="n">
-        <v>33120</v>
+        <v>34819</v>
       </c>
       <c r="D47" t="n">
-        <v>0.31327108312141</v>
+        <v>0.309849725120971</v>
       </c>
       <c r="E47" t="n">
-        <v>19739</v>
+        <v>19523</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0705507855691576</v>
+        <v>0.0526477812038769</v>
       </c>
       <c r="G47" t="n">
-        <v>4445</v>
+        <v>3317</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0134210548747657</v>
+        <v>0.00683814758749489</v>
       </c>
       <c r="I47" t="n">
-        <v>846</v>
+        <v>431</v>
       </c>
     </row>
     <row r="48">
@@ -1891,28 +1891,28 @@
         <v>55</v>
       </c>
       <c r="B48" t="n">
-        <v>0.64396585578436</v>
+        <v>0.673662178485021</v>
       </c>
       <c r="C48" t="n">
-        <v>425925</v>
+        <v>445567</v>
       </c>
       <c r="D48" t="n">
-        <v>0.453226333156642</v>
+        <v>0.461735346006854</v>
       </c>
       <c r="E48" t="n">
-        <v>299768</v>
+        <v>305396</v>
       </c>
       <c r="F48" t="n">
-        <v>0.165456850593961</v>
+        <v>0.147917160688714</v>
       </c>
       <c r="G48" t="n">
-        <v>109435</v>
+        <v>97834</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0546750692841972</v>
+        <v>0.0415070067788372</v>
       </c>
       <c r="I48" t="n">
-        <v>36163</v>
+        <v>27453</v>
       </c>
     </row>
     <row r="49">
@@ -1920,28 +1920,28 @@
         <v>56</v>
       </c>
       <c r="B49" t="n">
-        <v>0.598744753645232</v>
+        <v>0.63763132298953</v>
       </c>
       <c r="C49" t="n">
-        <v>332818</v>
+        <v>354434</v>
       </c>
       <c r="D49" t="n">
-        <v>0.388802279689648</v>
+        <v>0.400586507954429</v>
       </c>
       <c r="E49" t="n">
-        <v>216120</v>
+        <v>222670</v>
       </c>
       <c r="F49" t="n">
-        <v>0.109185120581833</v>
+        <v>0.0927478849957338</v>
       </c>
       <c r="G49" t="n">
-        <v>60692</v>
+        <v>51555</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0261491715642899</v>
+        <v>0.0169377610436167</v>
       </c>
       <c r="I49" t="n">
-        <v>14535</v>
+        <v>9415</v>
       </c>
     </row>
     <row r="50">
@@ -1949,28 +1949,28 @@
         <v>57</v>
       </c>
       <c r="B50" t="n">
-        <v>0.679203743649419</v>
+        <v>0.699082175580304</v>
       </c>
       <c r="C50" t="n">
-        <v>129382</v>
+        <v>133168</v>
       </c>
       <c r="D50" t="n">
-        <v>0.483925858675117</v>
+        <v>0.475266988354803</v>
       </c>
       <c r="E50" t="n">
-        <v>92183</v>
+        <v>90534</v>
       </c>
       <c r="F50" t="n">
-        <v>0.172453795903174</v>
+        <v>0.134721503534504</v>
       </c>
       <c r="G50" t="n">
-        <v>32851</v>
+        <v>25663</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0520272419161241</v>
+        <v>0.0295382447229756</v>
       </c>
       <c r="I50" t="n">
-        <v>9911</v>
+        <v>5627</v>
       </c>
     </row>
     <row r="51">
@@ -1978,28 +1978,28 @@
         <v>58</v>
       </c>
       <c r="B51" t="n">
-        <v>0.586338013189853</v>
+        <v>0.609793519061157</v>
       </c>
       <c r="C51" t="n">
-        <v>294562</v>
+        <v>306345</v>
       </c>
       <c r="D51" t="n">
-        <v>0.385990933868422</v>
+        <v>0.383004474316294</v>
       </c>
       <c r="E51" t="n">
-        <v>193912</v>
+        <v>192412</v>
       </c>
       <c r="F51" t="n">
-        <v>0.118817843494837</v>
+        <v>0.0979703486545671</v>
       </c>
       <c r="G51" t="n">
-        <v>59691</v>
+        <v>49218</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0334540099887499</v>
+        <v>0.0226625180897962</v>
       </c>
       <c r="I51" t="n">
-        <v>16806</v>
+        <v>11385</v>
       </c>
     </row>
     <row r="52">
@@ -2007,28 +2007,28 @@
         <v>59</v>
       </c>
       <c r="B52" t="n">
-        <v>0.522726050063851</v>
+        <v>0.554937611823169</v>
       </c>
       <c r="C52" t="n">
-        <v>25965</v>
+        <v>27565</v>
       </c>
       <c r="D52" t="n">
-        <v>0.312420793678612</v>
+        <v>0.314872154592767</v>
       </c>
       <c r="E52" t="n">
-        <v>15519</v>
+        <v>15640</v>
       </c>
       <c r="F52" t="n">
-        <v>0.07179488307359</v>
+        <v>0.0562617797429102</v>
       </c>
       <c r="G52" t="n">
-        <v>3566</v>
+        <v>2795</v>
       </c>
       <c r="H52" t="n">
-        <v>0.0141236780634782</v>
+        <v>0.007857561920443</v>
       </c>
       <c r="I52" t="n">
-        <v>702</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
